--- a/artfynd/A 60580-2025 artfynd.xlsx
+++ b/artfynd/A 60580-2025 artfynd.xlsx
@@ -799,7 +799,7 @@
         <v>129461517</v>
       </c>
       <c r="B3" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -911,7 +911,7 @@
         <v>129462167</v>
       </c>
       <c r="B4" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -2299,7 +2299,7 @@
         <v>130015474</v>
       </c>
       <c r="B16" t="n">
-        <v>57069</v>
+        <v>57073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
